--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3776604.436479264</v>
+        <v>3774032.481961356</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7714591.370650208</v>
+        <v>7714591.370650209</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>135.8442372525923</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>109.4910012253522</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>171.7498680634315</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>322.7838378298593</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301257</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>28.44734925172043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>68.17501931583773</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.397829669574</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603491</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4189,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2642.120401548716</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2504.904000283471</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>589.4492616060802</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>589.4492616060802</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>589.4492616060802</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>589.4492616060802</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>582.5037608568767</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>164.5399527550636</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>164.5399527550636</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1739.654191907093</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1366.188433646014</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>976.0491016702019</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4644,13 +4644,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358874</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3942879925752</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5063,28 +5063,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>699.73118040114</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,22 +5413,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5504,7 +5504,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6449,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6938,7 +6938,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,19 +7020,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7309,22 +7309,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7400,37 +7400,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7625,61 +7625,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7722,13 +7722,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7737,16 +7737,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711643</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>72.11969353038616</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520753</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624193</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26077,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>649986.8875070912</v>
+        <v>649986.8875070913</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26314,16 @@
         <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="F2" t="n">
         <v>766789.2697055058</v>
-      </c>
-      <c r="F2" t="n">
-        <v>766789.269705506</v>
       </c>
       <c r="G2" t="n">
         <v>766789.2697055056</v>
@@ -26335,25 +26335,25 @@
         <v>766789.2697055059</v>
       </c>
       <c r="J2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055062</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="O2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="P2" t="n">
         <v>766789.2697055059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670456</v>
+        <v>5067.592601670452</v>
       </c>
       <c r="F4" t="n">
+        <v>5067.59260167046</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5067.592601670439</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5067.592601670462</v>
+      </c>
+      <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="G4" t="n">
-        <v>5067.592601670442</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5067.592601670443</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5067.592601670436</v>
-      </c>
       <c r="J4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670445</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670443</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93901.78183461641</v>
+        <v>-93901.78183461638</v>
       </c>
       <c r="C6" t="n">
-        <v>496066.0973799281</v>
+        <v>496066.0973799279</v>
       </c>
       <c r="D6" t="n">
-        <v>496066.097379928</v>
+        <v>496066.0973799282</v>
       </c>
       <c r="E6" t="n">
-        <v>-283773.6304777807</v>
+        <v>-283808.3684032165</v>
       </c>
       <c r="F6" t="n">
-        <v>660599.1472799286</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="G6" t="n">
-        <v>660599.1472799281</v>
+        <v>660564.4093544924</v>
       </c>
       <c r="H6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="I6" t="n">
-        <v>660599.1472799284</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="J6" t="n">
-        <v>484175.9280873351</v>
+        <v>484141.1901618994</v>
       </c>
       <c r="K6" t="n">
-        <v>660599.1472799282</v>
+        <v>660564.4093544928</v>
       </c>
       <c r="L6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544924</v>
       </c>
       <c r="M6" t="n">
-        <v>536390.6365718698</v>
+        <v>536355.8986464345</v>
       </c>
       <c r="N6" t="n">
-        <v>660599.1472799283</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="O6" t="n">
-        <v>660599.1472799284</v>
+        <v>660564.4093544927</v>
       </c>
       <c r="P6" t="n">
-        <v>660599.1472799282</v>
+        <v>660564.4093544928</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26796,7 +26796,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.3937014034613</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>42.44031501950909</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>114.7731302731595</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.48905394114826</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834337</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212926</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.1373041003744</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,13 +32792,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33983,10 +33983,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343415</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35428,10 +35428,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394655</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36139,7 +36139,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37631,10 +37631,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
